--- a/Excel Data/MahanaAamdanDepositsSeniorCitizen.xlsx
+++ b/Excel Data/MahanaAamdanDepositsSeniorCitizen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Customer</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>PRINCIPAL</t>
   </si>
 </sst>
 </file>
@@ -458,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -474,16 +477,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1123174</v>
       </c>
@@ -491,10 +497,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
         <v>114448</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/MahanaAamdanDepositsSeniorCitizen.xlsx
+++ b/Excel Data/MahanaAamdanDepositsSeniorCitizen.xlsx
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -181,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +465,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
@@ -496,8 +500,8 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>10</v>
+      <c r="C2" s="7">
+        <v>100000</v>
       </c>
       <c r="D2" s="3">
         <v>114448</v>

--- a/Excel Data/MahanaAamdanDepositsSeniorCitizen.xlsx
+++ b/Excel Data/MahanaAamdanDepositsSeniorCitizen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Customer</t>
   </si>
@@ -40,6 +40,27 @@
   </si>
   <si>
     <t>PRINCIPAL</t>
+  </si>
+  <si>
+    <t>DRAWDOWN.ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRIN.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>INT.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>CUST.REMARKS:1</t>
+  </si>
+  <si>
+    <t>INTEND.DATE</t>
+  </si>
+  <si>
+    <t>EXP.DATE</t>
+  </si>
+  <si>
+    <t>TAX.INTEREST.TYPE:1</t>
   </si>
 </sst>
 </file>
@@ -71,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -169,11 +190,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -181,7 +228,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,41 +521,69 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>1123174</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>1105024</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="F2" s="3">
         <v>100000</v>
       </c>
-      <c r="D2" s="3">
-        <v>114448</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>114449</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
